--- a/Data/EC/NIT-9018745848.xlsx
+++ b/Data/EC/NIT-9018745848.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF81C30C-60A9-45A7-B6D5-63EDEE43CD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C168705-9FB6-4F58-9285-53F9529F0F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EC760AA3-ADD1-4379-9C0A-05E36CB95BB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B6B487D9-291F-4CBE-B54A-838D2DEDE68B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="166">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,37 +65,442 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73135148</t>
-  </si>
-  <si>
-    <t>MIGUEL ANTONIO GARCIA GONZALEZ</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1047471712</t>
-  </si>
-  <si>
-    <t>EDGAR ALFONSO GUZMAN COLON</t>
-  </si>
-  <si>
-    <t>1033676211</t>
-  </si>
-  <si>
-    <t>EDER ANDRES MORALES ROMERO</t>
+    <t>45542484</t>
+  </si>
+  <si>
+    <t>ALEXANDRA CASTILLA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>71983106</t>
+  </si>
+  <si>
+    <t>CELSO FARNET ARROYO MENA</t>
+  </si>
+  <si>
+    <t>73569072</t>
+  </si>
+  <si>
+    <t>ESTEBAN BLANCO MAZA</t>
+  </si>
+  <si>
+    <t>7960058</t>
+  </si>
+  <si>
+    <t>JHON JAIRO NARVAEZ SANTIAGO</t>
+  </si>
+  <si>
+    <t>85200505</t>
+  </si>
+  <si>
+    <t>FERNANDO JOSE MORENO BARRIOS</t>
+  </si>
+  <si>
+    <t>1049826552</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL ORTEGA MORALES</t>
+  </si>
+  <si>
+    <t>1149188965</t>
+  </si>
+  <si>
+    <t>JAVIER ANTONIO SUCERQUIA AVILA</t>
+  </si>
+  <si>
+    <t>73205697</t>
+  </si>
+  <si>
+    <t>JOSE FIGUEROA JIMENEZ</t>
+  </si>
+  <si>
+    <t>1143245531</t>
+  </si>
+  <si>
+    <t>RODOLFO CARLOS CAMACHO DE LA OSSA</t>
+  </si>
+  <si>
+    <t>73200000</t>
+  </si>
+  <si>
+    <t>ALEXANDER CORREA IMITOLA</t>
+  </si>
+  <si>
+    <t>1047416552</t>
+  </si>
+  <si>
+    <t>ALBERTO ENRIQUE JIMENEZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>5109409</t>
+  </si>
+  <si>
+    <t>CATALINO DE JESUS MORENO BARRIOS</t>
+  </si>
+  <si>
+    <t>1047402686</t>
+  </si>
+  <si>
+    <t>HENRY ANTONIO ANAYA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>73579085</t>
+  </si>
+  <si>
+    <t>ALEX ENRIQUE AYOLA</t>
+  </si>
+  <si>
+    <t>1104012302</t>
+  </si>
+  <si>
+    <t>MARIA LUCIA MENDOZA ATENCIA</t>
+  </si>
+  <si>
+    <t>1047438097</t>
+  </si>
+  <si>
+    <t>DEOBEIDIS AVILA TERAN</t>
+  </si>
+  <si>
+    <t>1193544294</t>
+  </si>
+  <si>
+    <t>CARLOS MANUEL MENDEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>1010020231</t>
+  </si>
+  <si>
+    <t>JESUS ANIBAL RODRIGUEZ AVILA</t>
+  </si>
+  <si>
+    <t>1063160669</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER BALLESTEROS MENDOZA</t>
+  </si>
+  <si>
+    <t>1137221946</t>
+  </si>
+  <si>
+    <t>HUMBERTO ANTONIO ESQUIBEL ROMERO</t>
+  </si>
+  <si>
+    <t>1002322475</t>
+  </si>
+  <si>
+    <t>JHON JAIRO PALOMINO TERAN</t>
+  </si>
+  <si>
+    <t>1003141489</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL SANCHEZ ALVARREZ</t>
+  </si>
+  <si>
+    <t>1047414138</t>
+  </si>
+  <si>
+    <t>JESUS DAVID ROA MORON</t>
+  </si>
+  <si>
+    <t>73189827</t>
+  </si>
+  <si>
+    <t>ARNULFO HERRERA JULIO</t>
+  </si>
+  <si>
+    <t>84093401</t>
+  </si>
+  <si>
+    <t>ENDER JAVIER GOURIYU</t>
+  </si>
+  <si>
+    <t>10997475</t>
+  </si>
+  <si>
+    <t>JADER MANUEL SOTO BURGOS</t>
+  </si>
+  <si>
+    <t>1049829199</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE MANJARREZ PORTO</t>
+  </si>
+  <si>
+    <t>79958909</t>
+  </si>
+  <si>
+    <t>RONALD JAIRO SANCHEZ RAMOS</t>
+  </si>
+  <si>
+    <t>1047386839</t>
+  </si>
+  <si>
+    <t>GENDRIS OLIVO CALVO</t>
+  </si>
+  <si>
+    <t>1143227881</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO ORTEGA IGLESIAS</t>
+  </si>
+  <si>
+    <t>1049825931</t>
+  </si>
+  <si>
+    <t>CRISTIAN ANDRES GUTIERREZ MEDINA</t>
+  </si>
+  <si>
+    <t>79936330</t>
+  </si>
+  <si>
+    <t>PEDRO PABLO FELIZOLA MERCADO</t>
+  </si>
+  <si>
+    <t>1007130752</t>
+  </si>
+  <si>
+    <t>JESUS DAVID DE ALBA CUETO</t>
+  </si>
+  <si>
+    <t>1047411580</t>
+  </si>
+  <si>
+    <t>CLEIFER BLANCO BERRIO</t>
+  </si>
+  <si>
+    <t>1049532631</t>
+  </si>
+  <si>
+    <t>DARWIN JOSE NARVAEZ ESCORCIA</t>
+  </si>
+  <si>
+    <t>1052072200</t>
+  </si>
+  <si>
+    <t>ALVARO ENRIQUE SANCHEZ ROMERO</t>
+  </si>
+  <si>
+    <t>1047442004</t>
+  </si>
+  <si>
+    <t>LUIS GABRIEL HERRERA MARTINEZ</t>
+  </si>
+  <si>
+    <t>73200621</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS GALINDO PADILLA</t>
+  </si>
+  <si>
+    <t>1042576577</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE GONZALEZ PEREZ</t>
+  </si>
+  <si>
+    <t>1082064436</t>
+  </si>
+  <si>
+    <t>DARWIN JOSE POLO VARGAS</t>
+  </si>
+  <si>
+    <t>1151472361</t>
+  </si>
+  <si>
+    <t>MIGUEL ALFONSO ALARCON CANO</t>
+  </si>
+  <si>
+    <t>2000002615</t>
+  </si>
+  <si>
+    <t>OBEIMAR DE JESUS OVIEDO GONZALEZ</t>
+  </si>
+  <si>
+    <t>1007208018</t>
+  </si>
+  <si>
+    <t>ABEL CORREA ESCAMILLA</t>
+  </si>
+  <si>
+    <t>1007195597</t>
+  </si>
+  <si>
+    <t>FANOR ENRIQUE GAMARRA MARRUGO</t>
+  </si>
+  <si>
+    <t>1102897149</t>
+  </si>
+  <si>
+    <t>KEIVYN IGNACIO ARRIETA CORREA</t>
+  </si>
+  <si>
+    <t>1003712927</t>
+  </si>
+  <si>
+    <t>JAFETH JOSE FUENTES CORREA</t>
+  </si>
+  <si>
+    <t>1047522706</t>
+  </si>
+  <si>
+    <t>JHAN GREGORIO CHAVEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>1047427801</t>
+  </si>
+  <si>
+    <t>ANDRES ENRIQUE PAUTT ANAYA</t>
+  </si>
+  <si>
+    <t>8499034</t>
+  </si>
+  <si>
+    <t>CARLOS MARIO CABALLERO ALTAMIRANDA</t>
+  </si>
+  <si>
+    <t>1143371754</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO SILGADO CLEMENTE</t>
+  </si>
+  <si>
+    <t>73209866</t>
+  </si>
+  <si>
+    <t>HARVEY MARQUEZ FUENTES</t>
+  </si>
+  <si>
+    <t>1001901658</t>
+  </si>
+  <si>
+    <t>CRISTIAN DAVID TEHERAN BELLO</t>
+  </si>
+  <si>
+    <t>1047483400</t>
+  </si>
+  <si>
+    <t>GRETCHEN MARIA ROMERO TORRALVO</t>
+  </si>
+  <si>
+    <t>1128054626</t>
+  </si>
+  <si>
+    <t>WILLIAM ALBERTO OSPINO PRIMERA</t>
+  </si>
+  <si>
+    <t>1149450800</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO MARTINEZ ORTEGA</t>
+  </si>
+  <si>
+    <t>15704316</t>
+  </si>
+  <si>
+    <t>ERNEY EDUARDO MARTINEZ ESPITIA</t>
+  </si>
+  <si>
+    <t>73207248</t>
+  </si>
+  <si>
+    <t>ALEXANDER JOSE FRANCO ANAYA</t>
+  </si>
+  <si>
+    <t>1001899373</t>
+  </si>
+  <si>
+    <t>ALEXANDER PEREZ CONTRERAS</t>
+  </si>
+  <si>
+    <t>1235038262</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO DUEÑAS CASTELLON</t>
+  </si>
+  <si>
+    <t>1120743747</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE BANQUETH MENDOZA</t>
+  </si>
+  <si>
+    <t>73569664</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE BALLESTAS CORDERO</t>
+  </si>
+  <si>
+    <t>3928801</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE NAVARRO PAYARES</t>
+  </si>
+  <si>
+    <t>1091081418</t>
+  </si>
+  <si>
+    <t>JAVIER SEGUNDO VANEGAS CASTRILLON</t>
+  </si>
+  <si>
+    <t>73214011</t>
+  </si>
+  <si>
+    <t>JORGE LUIS OSORIO OLMOS</t>
+  </si>
+  <si>
+    <t>1067719840</t>
+  </si>
+  <si>
+    <t>WILBER JOSE ALARCON GUERRA</t>
+  </si>
+  <si>
+    <t>1101450454</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO JULIO ORTEGA</t>
+  </si>
+  <si>
+    <t>91111493</t>
+  </si>
+  <si>
+    <t>JOSE LUIS MALDONADO SARMIENTO</t>
+  </si>
+  <si>
+    <t>1002196407</t>
+  </si>
+  <si>
+    <t>CESAR DAVID FURNIELES GUETO</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>4876578</t>
+  </si>
+  <si>
+    <t>YEFERSON ALEXANDER MUÑOZ CAMACHO</t>
+  </si>
+  <si>
+    <t>1066183316</t>
+  </si>
+  <si>
+    <t>JAIRO JOSE BALLESTEROS MENDOZA</t>
+  </si>
+  <si>
+    <t>1063179642</t>
+  </si>
+  <si>
+    <t>KENDRY RAFAEL AVILA PADILLA</t>
+  </si>
+  <si>
+    <t>84106922</t>
+  </si>
+  <si>
+    <t>OSCAR JOSE EPIEYU URIANA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,7 +599,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -207,9 +614,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +814,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +858,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +914,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BFDEBF-3B96-59E5-2226-5AEA19FE7778}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A71109-D51E-031A-40BA-A95DA7262F6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +1265,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2D6D3-FA67-4C85-B57D-CB185E7E2B44}">
-  <dimension ref="B2:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA7DBFD-A3D6-4D36-A389-7C0B1F086039}">
+  <dimension ref="B2:J93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -872,7 +1277,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -885,7 +1290,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +1335,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +1367,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>571298</v>
+        <v>4288612</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,17 +1383,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1015,13 +1420,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1052,13 +1457,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>56940</v>
@@ -1075,13 +1480,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>56940</v>
@@ -1098,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1121,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1144,16 +1549,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>1898</v>
+        <v>56940</v>
       </c>
       <c r="G21" s="18">
         <v>1423500</v>
@@ -1167,10 +1572,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>11</v>
@@ -1190,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1213,13 +1618,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1236,13 +1641,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>56940</v>
@@ -1255,56 +1660,1459 @@
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G26" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="18">
+        <v>20878</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="18">
+        <v>20878</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18">
+        <v>200000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="18">
+        <v>104000</v>
+      </c>
+      <c r="G61" s="18">
+        <v>2600000</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="18">
+        <v>20878</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G63" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G66" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="18">
+        <v>20878</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G80" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G81" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="18">
+        <v>200000</v>
+      </c>
+      <c r="G82" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G83" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G84" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G85" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G86" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G87" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="H92" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="32"/>
+      <c r="H93" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H92:J92"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
